--- a/data/xlsx/2022-22.0.xlsx
+++ b/data/xlsx/2022-22.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD45853-8F7D-C347-8FC0-05F5CABAFF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4F266-7603-754F-AA85-8C40720B343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{53854211-716F-CB4B-9607-3FE35C601A32}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{53854211-716F-CB4B-9607-3FE35C601A32}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -267,10 +267,10 @@
     <t>3:12</t>
   </si>
   <si>
-    <t>Katy Bright</t>
-  </si>
-  <si>
     <t>Bill Oehlschlager</t>
+  </si>
+  <si>
+    <t>Katy Meyvn</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E305F7-36DC-3C43-A786-050EBBBE318F}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -710,7 +712,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -742,7 +744,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -813,7 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBF3513-003B-A84F-A742-1FC4EBD727E3}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2022-22.0.xlsx
+++ b/data/xlsx/2022-22.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4F266-7603-754F-AA85-8C40720B343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921C5348-257B-9F4F-8535-09F43A1CEB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{53854211-716F-CB4B-9607-3FE35C601A32}"/>
   </bookViews>
@@ -676,9 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E305F7-36DC-3C43-A786-050EBBBE318F}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
